--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2000</v>
       </c>
       <c r="G10" s="3">
         <v>2000</v>
       </c>
       <c r="H10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
         <v>500</v>
       </c>
       <c r="F12" s="3">
+        <v>500</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>500</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
       </c>
       <c r="J12" s="3">
+        <v>500</v>
+      </c>
+      <c r="K12" s="3">
         <v>600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>500</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
       </c>
       <c r="M12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N12" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>-700</v>
       </c>
       <c r="K18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,11 +1153,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1144,51 +1177,57 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1214,7 +1253,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1225,46 +1264,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1287,11 +1332,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1299,10 +1344,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1339,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-800</v>
       </c>
       <c r="J27" s="3">
         <v>-800</v>
       </c>
       <c r="K27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1576,11 +1645,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1600,51 +1669,57 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-800</v>
       </c>
       <c r="J33" s="3">
         <v>-800</v>
       </c>
       <c r="K33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1681,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-800</v>
       </c>
       <c r="J35" s="3">
         <v>-800</v>
       </c>
       <c r="K35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1794,25 +1879,26 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
@@ -1824,16 +1910,19 @@
         <v>300</v>
       </c>
       <c r="L41" s="3">
+        <v>300</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1870,46 +1959,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1920,39 +2015,42 @@
         <v>3100</v>
       </c>
       <c r="F44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G44" s="3">
         <v>2900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>4300</v>
       </c>
       <c r="K44" s="3">
         <v>4300</v>
       </c>
       <c r="L44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M44" s="3">
         <v>4500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>4200</v>
       </c>
       <c r="N44" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E45" s="3">
         <v>2300</v>
@@ -1961,69 +2059,75 @@
         <v>2300</v>
       </c>
       <c r="G45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2100</v>
       </c>
       <c r="K45" s="3">
         <v>2100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>5700</v>
       </c>
       <c r="M46" s="3">
         <v>5700</v>
       </c>
       <c r="N46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2060,28 +2164,31 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
         <v>200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2212,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -2239,7 +2358,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E54" s="3">
         <v>9700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5900</v>
       </c>
       <c r="M54" s="3">
         <v>5900</v>
       </c>
       <c r="N54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="O54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2358,46 +2487,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2400</v>
       </c>
       <c r="L57" s="3">
         <v>2400</v>
       </c>
       <c r="M57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2405,7 +2538,7 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>800</v>
@@ -2417,7 +2550,7 @@
         <v>800</v>
       </c>
       <c r="I58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J58" s="3">
         <v>1000</v>
@@ -2426,54 +2559,60 @@
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E59" s="3">
         <v>6700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>5400</v>
       </c>
       <c r="L59" s="3">
         <v>5400</v>
       </c>
       <c r="M59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2481,42 +2620,45 @@
         <v>8500</v>
       </c>
       <c r="E60" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="F60" s="3">
         <v>8100</v>
       </c>
       <c r="G60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H60" s="3">
         <v>8300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>8800</v>
       </c>
       <c r="L60" s="3">
         <v>8800</v>
       </c>
       <c r="M60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2548,19 +2690,22 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
         <v>500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -2575,7 +2720,7 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>400</v>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2700,8 +2854,11 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
@@ -2709,37 +2866,40 @@
         <v>9000</v>
       </c>
       <c r="E66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>9200</v>
       </c>
       <c r="L66" s="3">
         <v>9200</v>
       </c>
       <c r="M66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2830,37 +2994,40 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E70" s="3">
         <v>4400</v>
       </c>
       <c r="F70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G70" s="3">
         <v>4300</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>3200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3000</v>
       </c>
       <c r="K70" s="3">
         <v>3000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3134,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-800</v>
       </c>
       <c r="J81" s="3">
         <v>-800</v>
       </c>
       <c r="K81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3269,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3459,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -3524,8 +3744,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>80</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>80</v>
@@ -3536,8 +3756,8 @@
       <c r="I91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3549,10 +3769,13 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3639,11 +3868,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -3663,10 +3892,13 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>400</v>
       </c>
       <c r="F102" s="3">
         <v>400</v>
       </c>
       <c r="G102" s="3">
+        <v>400</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,219 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,40 +904,46 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>500</v>
-      </c>
-      <c r="K12" s="3">
-        <v>600</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
       </c>
       <c r="M12" s="3">
+        <v>600</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
+        <v>500</v>
+      </c>
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -949,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -958,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -967,31 +1007,37 @@
         <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="E17" s="3">
         <v>3300</v>
       </c>
       <c r="F17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="3">
         <v>1000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>400</v>
       </c>
       <c r="G18" s="3">
         <v>600</v>
       </c>
       <c r="H18" s="3">
+        <v>400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1144,26 +1210,28 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1180,54 +1248,66 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-2900</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1256,10 +1336,10 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1267,49 +1347,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>300</v>
       </c>
       <c r="G23" s="3">
         <v>500</v>
       </c>
       <c r="H23" s="3">
+        <v>300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>500</v>
+      </c>
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2900</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1317,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1335,22 +1427,28 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1390,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
-      </c>
-      <c r="E26" s="3">
-        <v>500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>300</v>
       </c>
       <c r="G26" s="3">
         <v>500</v>
       </c>
       <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>500</v>
+      </c>
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-2900</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1636,26 +1770,32 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1672,54 +1812,66 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1759,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1880,31 +2052,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
@@ -1913,16 +2087,22 @@
         <v>300</v>
       </c>
       <c r="M41" s="3">
+        <v>300</v>
+      </c>
+      <c r="N41" s="3">
+        <v>300</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1962,54 +2142,66 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1700</v>
       </c>
       <c r="M43" s="3">
         <v>1100</v>
       </c>
       <c r="N43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="E44" s="3">
         <v>3100</v>
@@ -2018,54 +2210,60 @@
         <v>3100</v>
       </c>
       <c r="G44" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="H44" s="3">
         <v>3100</v>
       </c>
       <c r="I44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>4300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
-        <v>2300</v>
-      </c>
       <c r="F45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G45" s="3">
         <v>2300</v>
       </c>
       <c r="H45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="I45" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="J45" s="3">
         <v>2200</v>
@@ -2074,60 +2272,72 @@
         <v>2100</v>
       </c>
       <c r="L45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F46" s="3">
         <v>9900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2167,34 +2377,40 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -2208,8 +2424,14 @@
       <c r="O48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2331,16 +2565,22 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2361,10 +2601,10 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2413,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F54" s="3">
         <v>10600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2488,63 +2748,71 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>900</v>
       </c>
       <c r="G57" s="3">
         <v>1100</v>
       </c>
       <c r="H57" s="3">
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>800</v>
@@ -2553,25 +2821,31 @@
         <v>800</v>
       </c>
       <c r="J58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2579,86 +2853,98 @@
         <v>6500</v>
       </c>
       <c r="E59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G59" s="3">
         <v>6700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F60" s="3">
         <v>8500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>9100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2693,13 +2979,19 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -2708,10 +3000,10 @@
         <v>500</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
@@ -2723,10 +3015,10 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>400</v>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2997,49 +3327,61 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E70" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F70" s="3">
         <v>4500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>4400</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>4400</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>4300</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>4200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>3200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>3000</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3243,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-5200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3325,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3470,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3733,8 +4173,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -3747,11 +4189,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>80</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>80</v>
@@ -3759,11 +4201,11 @@
       <c r="J91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3772,10 +4214,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3871,14 +4331,14 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -3895,10 +4355,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,13 +4564,19 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4093,34 +4585,40 @@
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,28 +4658,34 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
@@ -4190,15 +4694,21 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2000</v>
       </c>
       <c r="J10" s="3">
         <v>2000</v>
       </c>
       <c r="K10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -910,40 +924,43 @@
         <v>600</v>
       </c>
       <c r="G12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="H12" s="3">
         <v>500</v>
       </c>
       <c r="I12" s="3">
+        <v>500</v>
+      </c>
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>500</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
       </c>
       <c r="M12" s="3">
+        <v>500</v>
+      </c>
+      <c r="N12" s="3">
         <v>600</v>
-      </c>
-      <c r="N12" s="3">
-        <v>500</v>
       </c>
       <c r="O12" s="3">
         <v>500</v>
       </c>
       <c r="P12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q12" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1004,40 +1024,43 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-700</v>
       </c>
       <c r="M18" s="3">
         <v>-700</v>
       </c>
       <c r="N18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1212,17 +1245,18 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1230,11 +1264,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1254,60 +1288,66 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1342,7 +1382,7 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1353,67 +1393,73 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1433,11 +1479,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1445,10 +1491,13 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-800</v>
       </c>
       <c r="M27" s="3">
         <v>-800</v>
       </c>
       <c r="N27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1776,17 +1843,20 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1794,11 +1864,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1818,60 +1888,66 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-800</v>
       </c>
       <c r="M33" s="3">
         <v>-800</v>
       </c>
       <c r="N33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-800</v>
       </c>
       <c r="M35" s="3">
         <v>-800</v>
       </c>
       <c r="N35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2054,34 +2140,35 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>300</v>
       </c>
       <c r="L41" s="3">
         <v>300</v>
@@ -2093,16 +2180,19 @@
         <v>300</v>
       </c>
       <c r="O41" s="3">
+        <v>300</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2148,63 +2238,69 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3500</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3100</v>
       </c>
       <c r="F44" s="3">
         <v>3100</v>
@@ -2216,48 +2312,51 @@
         <v>3100</v>
       </c>
       <c r="I44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J44" s="3">
         <v>2900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4100</v>
-      </c>
-      <c r="M44" s="3">
-        <v>4300</v>
       </c>
       <c r="N44" s="3">
         <v>4300</v>
       </c>
       <c r="O44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P44" s="3">
         <v>4500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>4200</v>
       </c>
       <c r="Q44" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2400</v>
       </c>
       <c r="F45" s="3">
         <v>2400</v>
       </c>
       <c r="G45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H45" s="3">
         <v>2300</v>
@@ -2266,78 +2365,84 @@
         <v>2300</v>
       </c>
       <c r="J45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>2100</v>
       </c>
       <c r="N45" s="3">
         <v>2100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E46" s="3">
         <v>10800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>5700</v>
       </c>
       <c r="P46" s="3">
         <v>5700</v>
       </c>
       <c r="Q46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="R46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2383,37 +2488,40 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
       </c>
       <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2571,19 +2688,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E52" s="3">
         <v>2700</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2607,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E54" s="3">
         <v>14000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>5900</v>
       </c>
       <c r="P54" s="3">
         <v>5900</v>
       </c>
       <c r="Q54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2750,63 +2880,67 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2400</v>
       </c>
       <c r="O57" s="3">
         <v>2400</v>
       </c>
       <c r="P57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
@@ -2815,7 +2949,7 @@
         <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>800</v>
@@ -2827,7 +2961,7 @@
         <v>800</v>
       </c>
       <c r="L58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
@@ -2836,119 +2970,128 @@
         <v>1000</v>
       </c>
       <c r="O58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>6500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>5400</v>
       </c>
       <c r="O59" s="3">
         <v>5400</v>
       </c>
       <c r="P59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E60" s="3">
         <v>8400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>8500</v>
       </c>
       <c r="G60" s="3">
         <v>8500</v>
       </c>
       <c r="H60" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="I60" s="3">
         <v>8100</v>
       </c>
       <c r="J60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K60" s="3">
         <v>8300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>8800</v>
       </c>
       <c r="O60" s="3">
         <v>8800</v>
       </c>
       <c r="P60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>5800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -2994,19 +3140,19 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -3021,7 +3167,7 @@
         <v>300</v>
       </c>
       <c r="N62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9000</v>
       </c>
       <c r="G66" s="3">
         <v>9000</v>
       </c>
       <c r="H66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>9200</v>
       </c>
       <c r="O66" s="3">
         <v>9200</v>
       </c>
       <c r="P66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>6200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3333,46 +3498,49 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E70" s="3">
         <v>4700</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>4600</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>4500</v>
-      </c>
-      <c r="G70" s="3">
-        <v>4400</v>
       </c>
       <c r="H70" s="3">
         <v>4400</v>
       </c>
       <c r="I70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J70" s="3">
         <v>4300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3100</v>
-      </c>
-      <c r="M70" s="3">
-        <v>3000</v>
       </c>
       <c r="N70" s="3">
         <v>3000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E76" s="3">
         <v>100</v>
       </c>
       <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-800</v>
       </c>
       <c r="M81" s="3">
         <v>-800</v>
       </c>
       <c r="N81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4195,8 +4416,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>80</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>80</v>
@@ -4207,8 +4428,8 @@
       <c r="L91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4220,10 +4441,13 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4337,11 +4567,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4361,10 +4591,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
-      </c>
-      <c r="P100" s="3">
-        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>400</v>
       </c>
       <c r="I102" s="3">
         <v>400</v>
       </c>
       <c r="J102" s="3">
+        <v>400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2000</v>
       </c>
       <c r="K10" s="3">
         <v>2000</v>
       </c>
       <c r="L10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,13 +921,14 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
@@ -927,40 +940,43 @@
         <v>600</v>
       </c>
       <c r="H12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I12" s="3">
         <v>500</v>
       </c>
       <c r="J12" s="3">
+        <v>500</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>500</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
         <v>600</v>
-      </c>
-      <c r="O12" s="3">
-        <v>500</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
       </c>
       <c r="Q12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R12" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,13 +1025,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1027,40 +1046,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
       </c>
       <c r="N18" s="3">
         <v>-700</v>
       </c>
       <c r="O18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1255,11 +1288,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1267,11 +1300,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1291,63 +1324,69 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,7 +1424,7 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1396,73 +1435,79 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1482,11 +1527,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1494,10 +1539,13 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-800</v>
       </c>
       <c r="N27" s="3">
         <v>-800</v>
       </c>
       <c r="O27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1855,11 +1924,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1867,11 +1936,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1891,63 +1960,69 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-800</v>
       </c>
       <c r="N33" s="3">
         <v>-800</v>
       </c>
       <c r="O33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-800</v>
       </c>
       <c r="N35" s="3">
         <v>-800</v>
       </c>
       <c r="O35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2141,37 +2226,38 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>300</v>
       </c>
       <c r="M41" s="3">
         <v>300</v>
@@ -2183,16 +2269,19 @@
         <v>300</v>
       </c>
       <c r="P41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2241,69 +2330,75 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
         <v>3000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3100</v>
       </c>
       <c r="G44" s="3">
         <v>3100</v>
@@ -2315,51 +2410,54 @@
         <v>3100</v>
       </c>
       <c r="J44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>4300</v>
       </c>
       <c r="O44" s="3">
         <v>4300</v>
       </c>
       <c r="P44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>4500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>4200</v>
       </c>
       <c r="R44" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2400</v>
       </c>
       <c r="G45" s="3">
         <v>2400</v>
       </c>
       <c r="H45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I45" s="3">
         <v>2300</v>
@@ -2368,81 +2466,87 @@
         <v>2300</v>
       </c>
       <c r="K45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2100</v>
       </c>
       <c r="O45" s="3">
         <v>2100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>5700</v>
       </c>
       <c r="Q46" s="3">
         <v>5700</v>
       </c>
       <c r="R46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="S46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2500,31 +2607,31 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
+        <v>400</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
         <v>200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2691,22 +2807,25 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2700</v>
       </c>
       <c r="F52" s="3">
         <v>2700</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -2730,7 +2849,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E54" s="3">
         <v>13900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>5900</v>
       </c>
       <c r="Q54" s="3">
         <v>5900</v>
       </c>
       <c r="R54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="S54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2881,69 +3010,73 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2400</v>
       </c>
       <c r="P57" s="3">
         <v>2400</v>
       </c>
       <c r="Q57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
@@ -2952,7 +3085,7 @@
         <v>700</v>
       </c>
       <c r="I58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>800</v>
@@ -2964,7 +3097,7 @@
         <v>800</v>
       </c>
       <c r="M58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>1000</v>
@@ -2973,16 +3106,19 @@
         <v>1000</v>
       </c>
       <c r="P58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2990,111 +3126,117 @@
         <v>6600</v>
       </c>
       <c r="E59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F59" s="3">
         <v>6500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5800</v>
-      </c>
-      <c r="O59" s="3">
-        <v>5400</v>
       </c>
       <c r="P59" s="3">
         <v>5400</v>
       </c>
       <c r="Q59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E60" s="3">
         <v>8300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>8500</v>
       </c>
       <c r="H60" s="3">
         <v>8500</v>
       </c>
       <c r="I60" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="J60" s="3">
         <v>8100</v>
       </c>
       <c r="K60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L60" s="3">
         <v>8300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>8800</v>
       </c>
       <c r="P60" s="3">
         <v>8800</v>
       </c>
       <c r="Q60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R60" s="3">
         <v>5800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3143,19 +3288,19 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -3170,7 +3315,7 @@
         <v>300</v>
       </c>
       <c r="O62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P62" s="3">
         <v>400</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>9000</v>
       </c>
       <c r="H66" s="3">
         <v>9000</v>
       </c>
       <c r="I66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>9200</v>
       </c>
       <c r="P66" s="3">
         <v>9200</v>
       </c>
       <c r="Q66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="R66" s="3">
         <v>6200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3510,40 +3677,40 @@
         <v>4800</v>
       </c>
       <c r="E70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F70" s="3">
         <v>4700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>4600</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4500</v>
-      </c>
-      <c r="H70" s="3">
-        <v>4400</v>
       </c>
       <c r="I70" s="3">
         <v>4400</v>
       </c>
       <c r="J70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K70" s="3">
         <v>4300</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>4200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3100</v>
-      </c>
-      <c r="N70" s="3">
-        <v>3000</v>
       </c>
       <c r="O70" s="3">
         <v>3000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>700</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>100</v>
       </c>
       <c r="F76" s="3">
         <v>100</v>
       </c>
       <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-800</v>
       </c>
       <c r="N81" s="3">
         <v>-800</v>
       </c>
       <c r="O81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4419,8 +4639,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>80</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>80</v>
@@ -4431,8 +4651,8 @@
       <c r="M91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4444,10 +4664,13 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4570,11 +4799,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4594,10 +4823,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>400</v>
       </c>
       <c r="J102" s="3">
         <v>400</v>
       </c>
       <c r="K102" s="3">
+        <v>400</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>TIKK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,19 +948,21 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
       </c>
       <c r="F12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>600</v>
@@ -943,40 +971,46 @@
         <v>600</v>
       </c>
       <c r="I12" s="3">
+        <v>600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>600</v>
+      </c>
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
-      </c>
-      <c r="N12" s="3">
-        <v>500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>600</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
       </c>
       <c r="Q12" s="3">
+        <v>600</v>
+      </c>
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
+        <v>500</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,20 +1062,26 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
+      </c>
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1049,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1058,31 +1098,37 @@
         <v>100</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3700</v>
       </c>
       <c r="I17" s="3">
         <v>3300</v>
       </c>
       <c r="J17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>400</v>
       </c>
       <c r="K18" s="3">
         <v>600</v>
       </c>
       <c r="L18" s="3">
+        <v>400</v>
+      </c>
+      <c r="M18" s="3">
+        <v>600</v>
+      </c>
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1288,29 +1356,29 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1327,66 +1395,78 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-2900</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1427,10 +1507,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1438,82 +1518,94 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>300</v>
       </c>
       <c r="K23" s="3">
         <v>500</v>
       </c>
       <c r="L23" s="3">
+        <v>300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>500</v>
+      </c>
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2900</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2600</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1530,22 +1622,28 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300</v>
       </c>
       <c r="K26" s="3">
         <v>500</v>
       </c>
       <c r="L26" s="3">
+        <v>300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>500</v>
+      </c>
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-2900</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1924,29 +2064,29 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1963,66 +2103,78 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2227,43 +2399,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="E41" s="3">
         <v>3500</v>
       </c>
       <c r="F41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>300</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
@@ -2272,16 +2446,22 @@
         <v>300</v>
       </c>
       <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2333,78 +2513,90 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1700</v>
       </c>
       <c r="Q43" s="3">
         <v>1100</v>
       </c>
       <c r="R43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3100</v>
       </c>
       <c r="I44" s="3">
         <v>3100</v>
@@ -2413,34 +2605,40 @@
         <v>3100</v>
       </c>
       <c r="K44" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="L44" s="3">
         <v>3100</v>
       </c>
       <c r="M44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O44" s="3">
         <v>3800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2448,7 +2646,7 @@
         <v>2300</v>
       </c>
       <c r="E45" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="3">
         <v>2300</v>
@@ -2457,22 +2655,22 @@
         <v>2400</v>
       </c>
       <c r="H45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
-        <v>2300</v>
-      </c>
       <c r="J45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K45" s="3">
         <v>2300</v>
       </c>
       <c r="L45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="M45" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="N45" s="3">
         <v>2200</v>
@@ -2481,72 +2679,84 @@
         <v>2100</v>
       </c>
       <c r="P45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F46" s="3">
         <v>10000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2598,46 +2808,52 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -2651,8 +2867,14 @@
       <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,28 +3044,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2600</v>
       </c>
       <c r="F52" s="3">
         <v>2700</v>
       </c>
       <c r="G52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H52" s="3">
         <v>2700</v>
       </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2852,10 +3092,10 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F54" s="3">
         <v>13100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>14000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>9700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3011,87 +3271,95 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>900</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
       </c>
       <c r="K57" s="3">
         <v>1100</v>
       </c>
       <c r="L57" s="3">
+        <v>900</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
@@ -3100,149 +3368,167 @@
         <v>800</v>
       </c>
       <c r="N58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>6500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6800</v>
       </c>
       <c r="H59" s="3">
         <v>6500</v>
       </c>
       <c r="I59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K59" s="3">
         <v>6700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F60" s="3">
         <v>7200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>8500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>9100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
+        <v>700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3276,25 +3562,31 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>2100</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>400</v>
@@ -3303,10 +3595,10 @@
         <v>500</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -3318,10 +3610,10 @@
         <v>300</v>
       </c>
       <c r="P62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R62" s="3">
         <v>400</v>
@@ -3329,8 +3621,14 @@
       <c r="S62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>400</v>
+      </c>
+      <c r="U62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F66" s="3">
         <v>7500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3680,49 +4016,55 @@
         <v>4800</v>
       </c>
       <c r="F70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H70" s="3">
         <v>4700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>4600</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>4500</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>4400</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>4400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>4300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>4200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>3200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>3100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>3000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>3000</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-13100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-13600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>400</v>
+      </c>
+      <c r="F76" s="3">
         <v>700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-5200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4224,8 +4620,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4277,8 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4616,13 +5056,15 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4642,11 +5084,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>80</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>80</v>
@@ -4654,11 +5096,11 @@
       <c r="N91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4667,10 +5109,16 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4802,14 +5262,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4826,10 +5286,16 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,25 +5547,31 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>700</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5088,34 +5580,40 @@
         <v>-100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>2900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,40 +5665,46 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
@@ -5209,15 +5713,21 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>TIKK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1700</v>
       </c>
       <c r="F9" s="3">
         <v>1700</v>
       </c>
       <c r="G9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2000</v>
       </c>
       <c r="N10" s="3">
         <v>2000</v>
       </c>
       <c r="O10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P10" s="3">
         <v>1000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,13 +973,13 @@
         <v>700</v>
       </c>
       <c r="E12" s="3">
+        <v>700</v>
+      </c>
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>600</v>
       </c>
       <c r="H12" s="3">
         <v>600</v>
@@ -977,40 +991,43 @@
         <v>600</v>
       </c>
       <c r="K12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L12" s="3">
         <v>500</v>
       </c>
       <c r="M12" s="3">
+        <v>500</v>
+      </c>
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
-      </c>
-      <c r="O12" s="3">
-        <v>500</v>
       </c>
       <c r="P12" s="3">
         <v>500</v>
       </c>
       <c r="Q12" s="3">
+        <v>500</v>
+      </c>
+      <c r="R12" s="3">
         <v>600</v>
-      </c>
-      <c r="R12" s="3">
-        <v>500</v>
       </c>
       <c r="S12" s="3">
         <v>500</v>
       </c>
       <c r="T12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U12" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,23 +1085,26 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1095,40 +1115,43 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-700</v>
       </c>
       <c r="Q18" s="3">
         <v>-700</v>
       </c>
       <c r="R18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1356,20 +1390,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1377,11 +1411,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1401,72 +1435,78 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1553,7 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1524,91 +1564,97 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2600</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1628,11 +1674,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1640,10 +1686,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-800</v>
       </c>
       <c r="Q27" s="3">
         <v>-800</v>
       </c>
       <c r="R27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2064,20 +2134,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2085,11 +2155,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2109,72 +2179,78 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-800</v>
       </c>
       <c r="Q33" s="3">
         <v>-800</v>
       </c>
       <c r="R33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-800</v>
       </c>
       <c r="Q35" s="3">
         <v>-800</v>
       </c>
       <c r="R35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2401,8 +2487,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
@@ -2410,37 +2497,37 @@
         <v>4800</v>
       </c>
       <c r="E41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
-      </c>
-      <c r="O41" s="3">
-        <v>300</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
@@ -2452,16 +2539,19 @@
         <v>300</v>
       </c>
       <c r="S41" s="3">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2519,87 +2609,93 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1900</v>
       </c>
       <c r="F43" s="3">
         <v>1900</v>
       </c>
       <c r="G43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3100</v>
       </c>
       <c r="J44" s="3">
         <v>3100</v>
@@ -2611,39 +2707,42 @@
         <v>3100</v>
       </c>
       <c r="M44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N44" s="3">
         <v>2900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>4300</v>
       </c>
       <c r="R44" s="3">
         <v>4300</v>
       </c>
       <c r="S44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T44" s="3">
         <v>4500</v>
-      </c>
-      <c r="T44" s="3">
-        <v>4200</v>
       </c>
       <c r="U44" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E45" s="3">
         <v>2300</v>
@@ -2652,19 +2751,19 @@
         <v>2300</v>
       </c>
       <c r="G45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2400</v>
       </c>
       <c r="J45" s="3">
         <v>2400</v>
       </c>
       <c r="K45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L45" s="3">
         <v>2300</v>
@@ -2673,31 +2772,34 @@
         <v>2300</v>
       </c>
       <c r="N45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O45" s="3">
         <v>2200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>2100</v>
       </c>
       <c r="R45" s="3">
         <v>2100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
@@ -2705,58 +2807,61 @@
         <v>11400</v>
       </c>
       <c r="E46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F46" s="3">
         <v>11100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>5700</v>
       </c>
       <c r="T46" s="3">
         <v>5700</v>
       </c>
       <c r="U46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="V46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2823,40 +2931,40 @@
         <v>2000</v>
       </c>
       <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
       </c>
       <c r="H48" s="3">
+        <v>400</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
       </c>
       <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
         <v>200</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3050,31 +3167,34 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2700</v>
       </c>
       <c r="F52" s="3">
         <v>2700</v>
       </c>
       <c r="G52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H52" s="3">
         <v>2600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2700</v>
       </c>
       <c r="I52" s="3">
         <v>2700</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3098,7 +3218,7 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="E54" s="3">
         <v>16000</v>
       </c>
       <c r="F54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G54" s="3">
         <v>13100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>5900</v>
       </c>
       <c r="T54" s="3">
         <v>5900</v>
       </c>
       <c r="U54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="V54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3282,78 +3413,81 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2400</v>
       </c>
       <c r="S57" s="3">
         <v>2400</v>
       </c>
       <c r="T57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>700</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
@@ -3362,7 +3496,7 @@
         <v>700</v>
       </c>
       <c r="L58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>800</v>
@@ -3374,7 +3508,7 @@
         <v>800</v>
       </c>
       <c r="P58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q58" s="3">
         <v>1000</v>
@@ -3383,155 +3517,164 @@
         <v>1000</v>
       </c>
       <c r="S58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>6600</v>
       </c>
       <c r="G59" s="3">
         <v>6600</v>
       </c>
       <c r="H59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I59" s="3">
         <v>6500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>5400</v>
       </c>
       <c r="S59" s="3">
         <v>5400</v>
       </c>
       <c r="T59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>8500</v>
       </c>
       <c r="K60" s="3">
         <v>8500</v>
       </c>
       <c r="L60" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="M60" s="3">
         <v>8100</v>
       </c>
       <c r="N60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="O60" s="3">
         <v>8300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>8800</v>
       </c>
       <c r="S60" s="3">
         <v>8800</v>
       </c>
       <c r="T60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="U60" s="3">
         <v>5800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3568,19 +3711,22 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -3589,19 +3735,19 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -3616,7 +3762,7 @@
         <v>300</v>
       </c>
       <c r="R62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S62" s="3">
         <v>400</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>9000</v>
       </c>
       <c r="K66" s="3">
         <v>9000</v>
       </c>
       <c r="L66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>9200</v>
       </c>
       <c r="S66" s="3">
         <v>9200</v>
       </c>
       <c r="T66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="U66" s="3">
         <v>6200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4022,40 +4190,40 @@
         <v>4800</v>
       </c>
       <c r="H70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I70" s="3">
         <v>4700</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>4600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4500</v>
-      </c>
-      <c r="K70" s="3">
-        <v>4400</v>
       </c>
       <c r="L70" s="3">
         <v>4400</v>
       </c>
       <c r="M70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N70" s="3">
         <v>4300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>4200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>3200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>3000</v>
       </c>
       <c r="R70" s="3">
         <v>3000</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-8800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E76" s="3">
         <v>900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>100</v>
       </c>
       <c r="I76" s="3">
         <v>100</v>
       </c>
       <c r="J76" s="3">
+        <v>100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-800</v>
       </c>
       <c r="Q81" s="3">
         <v>-800</v>
       </c>
       <c r="R81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5058,16 +5278,17 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5090,8 +5311,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>80</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>80</v>
@@ -5102,8 +5323,8 @@
       <c r="P91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5115,10 +5336,13 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5268,11 +5498,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5292,10 +5522,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,58 +5808,61 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
-      </c>
-      <c r="T100" s="3">
-        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
-      </c>
-      <c r="L102" s="3">
-        <v>400</v>
       </c>
       <c r="M102" s="3">
         <v>400</v>
       </c>
       <c r="N102" s="3">
+        <v>400</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>TIKK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2100</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1700</v>
       </c>
       <c r="G9" s="3">
         <v>1700</v>
       </c>
       <c r="H9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2000</v>
       </c>
       <c r="O10" s="3">
         <v>2000</v>
       </c>
       <c r="P10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,25 +976,26 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
         <v>700</v>
       </c>
       <c r="F12" s="3">
+        <v>700</v>
+      </c>
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>600</v>
       </c>
       <c r="I12" s="3">
         <v>600</v>
@@ -994,40 +1007,43 @@
         <v>600</v>
       </c>
       <c r="L12" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M12" s="3">
         <v>500</v>
       </c>
       <c r="N12" s="3">
+        <v>500</v>
+      </c>
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
-      </c>
-      <c r="P12" s="3">
-        <v>500</v>
       </c>
       <c r="Q12" s="3">
         <v>500</v>
       </c>
       <c r="R12" s="3">
+        <v>500</v>
+      </c>
+      <c r="S12" s="3">
         <v>600</v>
-      </c>
-      <c r="S12" s="3">
-        <v>500</v>
       </c>
       <c r="T12" s="3">
         <v>500</v>
       </c>
       <c r="U12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V12" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,26 +1104,29 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1118,40 +1137,43 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>100</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-700</v>
       </c>
       <c r="R18" s="3">
         <v>-700</v>
       </c>
       <c r="S18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1393,20 +1426,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1414,11 +1447,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1438,75 +1471,81 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1556,7 +1595,7 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1567,97 +1606,103 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2600</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1677,11 +1722,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1689,10 +1734,13 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-800</v>
       </c>
       <c r="R27" s="3">
         <v>-800</v>
       </c>
       <c r="S27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2137,20 +2206,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2158,11 +2227,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2182,75 +2251,81 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-800</v>
       </c>
       <c r="R33" s="3">
         <v>-800</v>
       </c>
       <c r="S33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-800</v>
       </c>
       <c r="R35" s="3">
         <v>-800</v>
       </c>
       <c r="S35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2488,49 +2573,50 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="E41" s="3">
         <v>4800</v>
       </c>
       <c r="F41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>300</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
@@ -2542,16 +2628,19 @@
         <v>300</v>
       </c>
       <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2612,93 +2701,99 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1900</v>
       </c>
       <c r="G43" s="3">
         <v>1900</v>
       </c>
       <c r="H43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3500</v>
-      </c>
-      <c r="J44" s="3">
-        <v>3100</v>
       </c>
       <c r="K44" s="3">
         <v>3100</v>
@@ -2710,42 +2805,45 @@
         <v>3100</v>
       </c>
       <c r="N44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O44" s="3">
         <v>2900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4100</v>
-      </c>
-      <c r="R44" s="3">
-        <v>4300</v>
       </c>
       <c r="S44" s="3">
         <v>4300</v>
       </c>
       <c r="T44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U44" s="3">
         <v>4500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>4200</v>
       </c>
       <c r="V44" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2300</v>
       </c>
       <c r="F45" s="3">
         <v>2300</v>
@@ -2754,19 +2852,19 @@
         <v>2300</v>
       </c>
       <c r="H45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2400</v>
       </c>
       <c r="K45" s="3">
         <v>2400</v>
       </c>
       <c r="L45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="M45" s="3">
         <v>2300</v>
@@ -2775,93 +2873,99 @@
         <v>2300</v>
       </c>
       <c r="O45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P45" s="3">
         <v>2200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>2100</v>
       </c>
       <c r="S45" s="3">
         <v>2100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="E46" s="3">
         <v>11400</v>
       </c>
       <c r="F46" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G46" s="3">
         <v>11100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>5700</v>
       </c>
       <c r="U46" s="3">
         <v>5700</v>
       </c>
       <c r="V46" s="3">
+        <v>5700</v>
+      </c>
+      <c r="W46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2922,52 +3026,55 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
         <v>2000</v>
       </c>
       <c r="F48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G48" s="3">
         <v>2100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
       </c>
       <c r="I48" s="3">
+        <v>400</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
       </c>
       <c r="N48" s="3">
+        <v>700</v>
+      </c>
+      <c r="O48" s="3">
         <v>200</v>
-      </c>
-      <c r="O48" s="3">
-        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3170,34 +3286,37 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2700</v>
       </c>
       <c r="G52" s="3">
         <v>2700</v>
       </c>
       <c r="H52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I52" s="3">
         <v>2600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2700</v>
       </c>
       <c r="J52" s="3">
         <v>2700</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3221,7 +3340,7 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15900</v>
-      </c>
-      <c r="E54" s="3">
-        <v>16000</v>
       </c>
       <c r="F54" s="3">
         <v>16000</v>
       </c>
       <c r="G54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="H54" s="3">
         <v>13100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8600</v>
-      </c>
-      <c r="T54" s="3">
-        <v>5900</v>
       </c>
       <c r="U54" s="3">
         <v>5900</v>
       </c>
       <c r="V54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="W54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
@@ -3416,58 +3546,61 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2400</v>
       </c>
       <c r="T57" s="3">
         <v>2400</v>
       </c>
       <c r="U57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3477,20 +3610,20 @@
       <c r="E58" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
@@ -3499,7 +3632,7 @@
         <v>700</v>
       </c>
       <c r="M58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N58" s="3">
         <v>800</v>
@@ -3511,7 +3644,7 @@
         <v>800</v>
       </c>
       <c r="Q58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="R58" s="3">
         <v>1000</v>
@@ -3520,140 +3653,149 @@
         <v>1000</v>
       </c>
       <c r="T58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6600</v>
       </c>
       <c r="H59" s="3">
         <v>6600</v>
       </c>
       <c r="I59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J59" s="3">
         <v>6500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>5400</v>
       </c>
       <c r="T59" s="3">
         <v>5400</v>
       </c>
       <c r="U59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V59" s="3">
         <v>3400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>8500</v>
       </c>
       <c r="L60" s="3">
         <v>8500</v>
       </c>
       <c r="M60" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="N60" s="3">
         <v>8100</v>
       </c>
       <c r="O60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P60" s="3">
         <v>8300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>8800</v>
       </c>
       <c r="T60" s="3">
         <v>8800</v>
       </c>
       <c r="U60" s="3">
+        <v>8800</v>
+      </c>
+      <c r="V60" s="3">
         <v>5800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3661,23 +3803,23 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
@@ -3723,13 +3868,13 @@
         <v>1900</v>
       </c>
       <c r="E62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -3738,19 +3883,19 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
@@ -3765,7 +3910,7 @@
         <v>300</v>
       </c>
       <c r="S62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T62" s="3">
         <v>400</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>9000</v>
       </c>
       <c r="L66" s="3">
         <v>9000</v>
       </c>
       <c r="M66" s="3">
+        <v>9000</v>
+      </c>
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>9200</v>
       </c>
       <c r="T66" s="3">
         <v>9200</v>
       </c>
       <c r="U66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="V66" s="3">
         <v>6200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4193,40 +4360,40 @@
         <v>4800</v>
       </c>
       <c r="I70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J70" s="3">
         <v>4700</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>4600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>4500</v>
-      </c>
-      <c r="L70" s="3">
-        <v>4400</v>
       </c>
       <c r="M70" s="3">
         <v>4400</v>
       </c>
       <c r="N70" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O70" s="3">
         <v>4300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>4200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>3200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>3100</v>
-      </c>
-      <c r="R70" s="3">
-        <v>3000</v>
       </c>
       <c r="S70" s="3">
         <v>3000</v>
       </c>
       <c r="T70" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="U70" s="3">
         <v>0</v>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>100</v>
       </c>
       <c r="J76" s="3">
         <v>100</v>
       </c>
       <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-5200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-800</v>
       </c>
       <c r="R81" s="3">
         <v>-800</v>
       </c>
       <c r="S81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5279,19 +5498,20 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>80</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5314,8 +5534,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>80</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>80</v>
@@ -5326,8 +5546,8 @@
       <c r="Q91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5339,10 +5559,13 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5501,11 +5730,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5525,10 +5754,13 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5811,58 +6056,61 @@
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>2900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
-      </c>
-      <c r="M102" s="3">
-        <v>400</v>
       </c>
       <c r="N102" s="3">
         <v>400</v>
       </c>
       <c r="O102" s="3">
+        <v>400</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>TIKK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>700</v>
+      </c>
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,31 +1003,33 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>500</v>
       </c>
       <c r="I12" s="3">
         <v>600</v>
       </c>
       <c r="J12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>600</v>
@@ -1010,40 +1038,46 @@
         <v>600</v>
       </c>
       <c r="M12" s="3">
+        <v>600</v>
+      </c>
+      <c r="N12" s="3">
+        <v>600</v>
+      </c>
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
-      </c>
-      <c r="R12" s="3">
-        <v>500</v>
-      </c>
-      <c r="S12" s="3">
-        <v>600</v>
       </c>
       <c r="T12" s="3">
         <v>500</v>
       </c>
       <c r="U12" s="3">
+        <v>600</v>
+      </c>
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
+        <v>500</v>
+      </c>
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1141,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1116,23 +1156,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1140,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1149,31 +1189,37 @@
         <v>100</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
         <v>2500</v>
       </c>
       <c r="F17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3700</v>
       </c>
       <c r="M17" s="3">
         <v>3300</v>
       </c>
       <c r="N17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>400</v>
       </c>
       <c r="O18" s="3">
         <v>600</v>
       </c>
       <c r="P18" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>600</v>
+      </c>
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1429,35 +1497,35 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1474,78 +1542,90 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-2900</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
       <c r="W21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,10 +1678,10 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1609,106 +1689,118 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>300</v>
       </c>
       <c r="O23" s="3">
         <v>500</v>
       </c>
       <c r="P23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>500</v>
+      </c>
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-2900</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-2600</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1725,22 +1817,28 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>300</v>
       </c>
       <c r="O26" s="3">
         <v>500</v>
       </c>
       <c r="P26" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>500</v>
+      </c>
+      <c r="R26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-2900</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
       <c r="W26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2209,35 +2349,35 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2254,78 +2394,90 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2574,55 +2746,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F41" s="3">
         <v>5300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2900</v>
       </c>
       <c r="I41" s="3">
         <v>3500</v>
       </c>
       <c r="J41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>300</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
@@ -2631,16 +2805,22 @@
         <v>300</v>
       </c>
       <c r="U41" s="3">
+        <v>300</v>
+      </c>
+      <c r="V41" s="3">
+        <v>300</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2713,64 +2899,70 @@
         <v>1400</v>
       </c>
       <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>700</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1700</v>
       </c>
       <c r="U43" s="3">
         <v>1100</v>
       </c>
       <c r="V43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2778,28 +2970,28 @@
         <v>2700</v>
       </c>
       <c r="E44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G44" s="3">
         <v>2900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>2900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3100</v>
       </c>
       <c r="M44" s="3">
         <v>3100</v>
@@ -2808,54 +3000,60 @@
         <v>3100</v>
       </c>
       <c r="O44" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="P44" s="3">
         <v>3100</v>
       </c>
       <c r="Q44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S44" s="3">
         <v>3800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>4300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>4500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>4200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2200</v>
       </c>
       <c r="F45" s="3">
         <v>2300</v>
       </c>
       <c r="G45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H45" s="3">
         <v>2300</v>
       </c>
       <c r="I45" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J45" s="3">
         <v>2300</v>
@@ -2864,22 +3062,22 @@
         <v>2400</v>
       </c>
       <c r="L45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
-        <v>2300</v>
-      </c>
       <c r="N45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="O45" s="3">
         <v>2300</v>
       </c>
       <c r="P45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="Q45" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="R45" s="3">
         <v>2200</v>
@@ -2888,84 +3086,96 @@
         <v>2100</v>
       </c>
       <c r="T45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U45" s="3">
         <v>2100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3029,58 +3239,64 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
       </c>
       <c r="T48" s="3">
         <v>200</v>
@@ -3094,8 +3310,14 @@
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3289,40 +3523,46 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="E52" s="3">
         <v>2500</v>
       </c>
       <c r="F52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H52" s="3">
         <v>2600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2600</v>
       </c>
       <c r="J52" s="3">
         <v>2700</v>
       </c>
       <c r="K52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L52" s="3">
         <v>2700</v>
       </c>
-      <c r="L52" s="3">
-        <v>100</v>
-      </c>
       <c r="M52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3343,10 +3583,10 @@
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>16000</v>
+        <v>15100</v>
       </c>
       <c r="E54" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="F54" s="3">
         <v>16000</v>
       </c>
       <c r="G54" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H54" s="3">
         <v>16000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="J54" s="3">
         <v>13100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>13900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>7500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3534,13 +3794,15 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -3549,58 +3811,64 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>900</v>
       </c>
       <c r="O57" s="3">
         <v>1100</v>
       </c>
       <c r="P57" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3613,32 +3881,32 @@
       <c r="F58" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
       <c r="N58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
@@ -3647,155 +3915,173 @@
         <v>800</v>
       </c>
       <c r="R58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="S58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T58" s="3">
         <v>1000</v>
       </c>
       <c r="U58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E59" s="3">
         <v>7000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G59" s="3">
         <v>6900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>7100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>6600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>6600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>6500</v>
-      </c>
-      <c r="K59" s="3">
-        <v>6800</v>
       </c>
       <c r="L59" s="3">
         <v>6500</v>
       </c>
       <c r="M59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="N59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="O59" s="3">
         <v>6700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>6400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>6300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>5800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>8000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>9300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>8800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3806,26 +4092,26 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3859,37 +4145,43 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>400</v>
@@ -3898,10 +4190,10 @@
         <v>500</v>
       </c>
       <c r="O62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P62" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>300</v>
@@ -3913,10 +4205,10 @@
         <v>300</v>
       </c>
       <c r="T62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V62" s="3">
         <v>400</v>
@@ -3924,8 +4216,14 @@
       <c r="W62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="E66" s="3">
         <v>9200</v>
       </c>
       <c r="F66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4363,49 +4699,55 @@
         <v>4800</v>
       </c>
       <c r="J70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L70" s="3">
         <v>4700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>4600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>4500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>4400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>4400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>4300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>4200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>3200</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>3100</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>3000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>3000</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-10900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-12000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-11700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-8800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F76" s="3">
         <v>1900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-5200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5084,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5499,26 +5939,28 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5537,11 +5979,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>80</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>80</v>
@@ -5549,11 +5991,11 @@
       <c r="R91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5562,10 +6004,16 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5733,14 +6193,14 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5757,10 +6217,16 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6530,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6059,22 +6551,22 @@
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6083,34 +6575,40 @@
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>2900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,52 +6672,58 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
@@ -6228,15 +6732,21 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>TIKK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,115 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -777,67 +784,73 @@
         <v>2000</v>
       </c>
       <c r="F8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="3">
         <v>3200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,70 +858,76 @@
         <v>1400</v>
       </c>
       <c r="E9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,70 +935,76 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>900</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,37 +1030,39 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
       </c>
       <c r="F12" s="3">
+        <v>500</v>
+      </c>
+      <c r="G12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>600</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>500</v>
       </c>
       <c r="K12" s="3">
         <v>600</v>
       </c>
       <c r="L12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M12" s="3">
         <v>600</v>
@@ -1044,40 +1071,46 @@
         <v>600</v>
       </c>
       <c r="O12" s="3">
+        <v>600</v>
+      </c>
+      <c r="P12" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
-      </c>
-      <c r="T12" s="3">
-        <v>500</v>
-      </c>
-      <c r="U12" s="3">
-        <v>600</v>
       </c>
       <c r="V12" s="3">
         <v>500</v>
       </c>
       <c r="W12" s="3">
+        <v>600</v>
+      </c>
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z12" s="3">
         <v>600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1162,23 +1201,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1186,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1195,31 +1234,37 @@
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>2100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="3">
         <v>2500</v>
       </c>
       <c r="F17" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="G17" s="3">
         <v>2500</v>
       </c>
       <c r="H17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>3700</v>
       </c>
       <c r="O17" s="3">
         <v>3300</v>
       </c>
       <c r="P17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>400</v>
       </c>
       <c r="Q18" s="3">
         <v>600</v>
       </c>
       <c r="R18" s="3">
+        <v>400</v>
+      </c>
+      <c r="S18" s="3">
+        <v>600</v>
+      </c>
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-2900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,13 +1547,15 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1503,35 +1570,35 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1548,84 +1615,96 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>600</v>
       </c>
       <c r="E21" s="3">
         <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-2900</v>
       </c>
       <c r="X21" s="3">
         <v>-300</v>
       </c>
       <c r="Y21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1684,10 +1763,10 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1695,118 +1774,130 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>-600</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>300</v>
       </c>
       <c r="Q23" s="3">
         <v>500</v>
       </c>
       <c r="R23" s="3">
+        <v>300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>500</v>
+      </c>
+      <c r="T23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-2900</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-2600</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1823,22 +1914,28 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>300</v>
       </c>
       <c r="Q26" s="3">
         <v>500</v>
       </c>
       <c r="R26" s="3">
+        <v>300</v>
+      </c>
+      <c r="S26" s="3">
+        <v>500</v>
+      </c>
+      <c r="T26" s="3">
         <v>600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-2900</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>3000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2334,13 +2467,19 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2355,35 +2494,35 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2400,84 +2539,96 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>3000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>3000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2748,61 +2919,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2900</v>
       </c>
       <c r="K41" s="3">
         <v>3500</v>
       </c>
       <c r="L41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>300</v>
-      </c>
-      <c r="T41" s="3">
-        <v>300</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
@@ -2811,16 +2984,22 @@
         <v>300</v>
       </c>
       <c r="W41" s="3">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2890,114 +3069,126 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1000</v>
       </c>
       <c r="F43" s="3">
         <v>1400</v>
       </c>
       <c r="G43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>700</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>1700</v>
       </c>
       <c r="W43" s="3">
         <v>1100</v>
       </c>
       <c r="X43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z43" s="3">
         <v>1200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="E44" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F44" s="3">
         <v>2700</v>
       </c>
       <c r="G44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I44" s="3">
         <v>2900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N44" s="3">
-        <v>3100</v>
       </c>
       <c r="O44" s="3">
         <v>3100</v>
@@ -3006,60 +3197,66 @@
         <v>3100</v>
       </c>
       <c r="Q44" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="R44" s="3">
         <v>3100</v>
       </c>
       <c r="S44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U44" s="3">
         <v>3800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>4100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>4300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>4300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>4500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>4200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="3">
         <v>2300</v>
       </c>
       <c r="F45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G45" s="3">
         <v>2300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2200</v>
       </c>
       <c r="H45" s="3">
         <v>2300</v>
       </c>
       <c r="I45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J45" s="3">
         <v>2300</v>
       </c>
       <c r="K45" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L45" s="3">
         <v>2300</v>
@@ -3068,22 +3265,22 @@
         <v>2400</v>
       </c>
       <c r="N45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3">
-        <v>2300</v>
-      </c>
       <c r="P45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="Q45" s="3">
         <v>2300</v>
       </c>
       <c r="R45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="S45" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="T45" s="3">
         <v>2200</v>
@@ -3092,90 +3289,102 @@
         <v>2100</v>
       </c>
       <c r="V45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W45" s="3">
         <v>2100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F46" s="3">
         <v>10700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>11700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>11100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3245,64 +3454,70 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
-      </c>
-      <c r="U48" s="3">
-        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
@@ -3316,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3387,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3529,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3538,37 +3777,37 @@
         <v>2600</v>
       </c>
       <c r="E52" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="F52" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G52" s="3">
         <v>2500</v>
       </c>
       <c r="H52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J52" s="3">
         <v>2600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2600</v>
       </c>
       <c r="L52" s="3">
         <v>2700</v>
       </c>
       <c r="M52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N52" s="3">
         <v>2700</v>
       </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -3589,10 +3828,10 @@
         <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3671,8 +3916,14 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
@@ -3680,70 +3931,76 @@
         <v>15100</v>
       </c>
       <c r="E54" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F54" s="3">
+        <v>15100</v>
+      </c>
+      <c r="G54" s="3">
         <v>15400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>15900</v>
       </c>
       <c r="H54" s="3">
         <v>16000</v>
       </c>
       <c r="I54" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J54" s="3">
         <v>16000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="L54" s="3">
         <v>13100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>14000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>8600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3796,19 +4055,21 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
@@ -3817,75 +4078,81 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>900</v>
       </c>
       <c r="Q57" s="3">
         <v>1100</v>
       </c>
       <c r="R57" s="3">
+        <v>900</v>
+      </c>
+      <c r="S57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>1900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>80</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3894,25 +4161,25 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
       </c>
       <c r="P58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R58" s="3">
         <v>800</v>
@@ -3921,167 +4188,185 @@
         <v>800</v>
       </c>
       <c r="T58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="U58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="V58" s="3">
         <v>1000</v>
       </c>
       <c r="W58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E59" s="3">
         <v>7000</v>
       </c>
       <c r="F59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I59" s="3">
         <v>6900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>7100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>6600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>6500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>6800</v>
       </c>
       <c r="N59" s="3">
         <v>6500</v>
       </c>
       <c r="O59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="P59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>5900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>5400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>5400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>9300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>9200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>8800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>8800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4098,26 +4383,26 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4151,43 +4436,49 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
       <c r="M62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>400</v>
@@ -4196,10 +4487,10 @@
         <v>500</v>
       </c>
       <c r="Q62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R62" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>300</v>
@@ -4211,10 +4502,10 @@
         <v>300</v>
       </c>
       <c r="V62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X62" s="3">
         <v>400</v>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4435,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F66" s="3">
         <v>9200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>9200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>9300</v>
       </c>
       <c r="G66" s="3">
         <v>9200</v>
       </c>
       <c r="H66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4675,16 +5004,22 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E70" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F70" s="3">
         <v>4800</v>
@@ -4705,49 +5040,55 @@
         <v>4800</v>
       </c>
       <c r="L70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N70" s="3">
         <v>4700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>4600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>4500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>4400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>4400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>4300</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>4200</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>3200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>3100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>3000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>3000</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-7300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-10900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-13100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-13700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-12800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-11700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-5300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-5200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-4400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-3600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-3200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>3000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5488,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5843,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5941,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5955,18 +6396,18 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5985,11 +6426,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>80</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>80</v>
@@ -5997,11 +6438,11 @@
       <c r="T91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6010,10 +6451,16 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6199,14 +6658,14 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6223,10 +6682,16 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,16 +7021,22 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
@@ -6557,22 +7048,22 @@
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>700</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6581,34 +7072,40 @@
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>2900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,58 +7175,64 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
@@ -6738,15 +7241,21 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>TIKK</t>
   </si>
@@ -6402,11 +6402,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>80</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>TIKK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,128 @@
     <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2300</v>
+        <v>2900</v>
       </c>
       <c r="E8" s="3">
         <v>2000</v>
@@ -790,221 +798,239 @@
         <v>2000</v>
       </c>
       <c r="H8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>3300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>3500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E9" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="F9" s="3">
         <v>1400</v>
       </c>
       <c r="G9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I9" s="3">
         <v>1300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>2300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F10" s="3">
         <v>900</v>
       </c>
       <c r="G10" s="3">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,43 +1058,45 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>500</v>
       </c>
       <c r="G12" s="3">
         <v>600</v>
       </c>
       <c r="H12" s="3">
+        <v>500</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
+        <v>600</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>500</v>
       </c>
       <c r="M12" s="3">
         <v>600</v>
       </c>
       <c r="N12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O12" s="3">
         <v>600</v>
@@ -1077,40 +1105,46 @@
         <v>600</v>
       </c>
       <c r="Q12" s="3">
+        <v>600</v>
+      </c>
+      <c r="R12" s="3">
+        <v>600</v>
+      </c>
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
-      </c>
-      <c r="V12" s="3">
-        <v>500</v>
-      </c>
-      <c r="W12" s="3">
-        <v>600</v>
       </c>
       <c r="X12" s="3">
         <v>500</v>
       </c>
       <c r="Y12" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB12" s="3">
         <v>600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,13 +1220,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1207,23 +1247,23 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1231,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1240,31 +1280,37 @@
         <v>100</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>2100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1418,10 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1375,153 +1429,165 @@
         <v>2400</v>
       </c>
       <c r="E17" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="F17" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G17" s="3">
         <v>2500</v>
       </c>
       <c r="H17" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="I17" s="3">
         <v>2500</v>
       </c>
       <c r="J17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3700</v>
       </c>
       <c r="Q17" s="3">
         <v>3300</v>
       </c>
       <c r="R17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>4700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>4000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>-500</v>
-      </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-500</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>600</v>
-      </c>
-      <c r="R18" s="3">
-        <v>400</v>
       </c>
       <c r="S18" s="3">
         <v>600</v>
       </c>
       <c r="T18" s="3">
+        <v>400</v>
+      </c>
+      <c r="U18" s="3">
+        <v>600</v>
+      </c>
+      <c r="V18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,20 +1615,22 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1576,35 +1644,35 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1621,90 +1689,102 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-500</v>
       </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-2900</v>
       </c>
       <c r="Z21" s="3">
         <v>-300</v>
       </c>
       <c r="AA21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-3200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1769,10 +1849,10 @@
         <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1780,85 +1860,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-600</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>300</v>
       </c>
       <c r="S23" s="3">
         <v>500</v>
       </c>
       <c r="T23" s="3">
+        <v>300</v>
+      </c>
+      <c r="U23" s="3">
+        <v>500</v>
+      </c>
+      <c r="V23" s="3">
         <v>600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-2900</v>
       </c>
       <c r="Z23" s="3">
         <v>-300</v>
       </c>
       <c r="AA23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1866,44 +1958,44 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-2600</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1920,22 +2012,28 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-500</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>300</v>
       </c>
       <c r="S26" s="3">
         <v>500</v>
       </c>
       <c r="T26" s="3">
+        <v>300</v>
+      </c>
+      <c r="U26" s="3">
+        <v>500</v>
+      </c>
+      <c r="V26" s="3">
         <v>600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-2900</v>
       </c>
       <c r="Z26" s="3">
         <v>-300</v>
       </c>
       <c r="AA26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>3000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2473,20 +2607,26 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2500,35 +2640,35 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2545,90 +2685,102 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>3000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>3000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2921,67 +3093,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
-      </c>
-      <c r="K41" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2900</v>
       </c>
       <c r="M41" s="3">
         <v>3500</v>
       </c>
       <c r="N41" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>300</v>
-      </c>
-      <c r="V41" s="3">
-        <v>300</v>
       </c>
       <c r="W41" s="3">
         <v>300</v>
@@ -2990,16 +3164,22 @@
         <v>300</v>
       </c>
       <c r="Y41" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3075,126 +3255,138 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
       </c>
       <c r="H43" s="3">
         <v>1400</v>
       </c>
       <c r="I43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>700</v>
-      </c>
-      <c r="W43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1700</v>
       </c>
       <c r="Y43" s="3">
         <v>1100</v>
       </c>
       <c r="Z43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB43" s="3">
         <v>1200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F44" s="3">
         <v>3300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>2800</v>
       </c>
       <c r="H44" s="3">
         <v>2700</v>
       </c>
       <c r="I44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>3100</v>
       </c>
       <c r="Q44" s="3">
         <v>3100</v>
@@ -3203,66 +3395,72 @@
         <v>3100</v>
       </c>
       <c r="S44" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="T44" s="3">
         <v>3100</v>
       </c>
       <c r="U44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V44" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W44" s="3">
         <v>3800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>4100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>4300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>4300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>4500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>4200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>2400</v>
       </c>
       <c r="G45" s="3">
         <v>2300</v>
       </c>
       <c r="H45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I45" s="3">
         <v>2300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2200</v>
       </c>
       <c r="J45" s="3">
         <v>2300</v>
       </c>
       <c r="K45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L45" s="3">
         <v>2300</v>
       </c>
       <c r="M45" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N45" s="3">
         <v>2300</v>
@@ -3271,22 +3469,22 @@
         <v>2400</v>
       </c>
       <c r="P45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3">
-        <v>2300</v>
-      </c>
       <c r="R45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="S45" s="3">
         <v>2300</v>
       </c>
       <c r="T45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="U45" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="V45" s="3">
         <v>2200</v>
@@ -3295,96 +3493,108 @@
         <v>2100</v>
       </c>
       <c r="X45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y45" s="3">
         <v>2100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F46" s="3">
         <v>10900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>11700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>11400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>11400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>10800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>8900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>5700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3460,70 +3670,76 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>100</v>
-      </c>
-      <c r="V48" s="3">
-        <v>200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
@@ -3537,8 +3753,14 @@
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3614,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3768,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3783,37 +4023,37 @@
         <v>2600</v>
       </c>
       <c r="G52" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="H52" s="3">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="I52" s="3">
         <v>2500</v>
       </c>
       <c r="J52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2600</v>
       </c>
       <c r="N52" s="3">
         <v>2700</v>
       </c>
       <c r="O52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P52" s="3">
         <v>2700</v>
       </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
       <c r="Q52" s="3">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -3834,10 +4074,10 @@
         <v>100</v>
       </c>
       <c r="X52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -3845,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="E54" s="3">
-        <v>14600</v>
+        <v>15400</v>
       </c>
       <c r="F54" s="3">
         <v>15100</v>
       </c>
       <c r="G54" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H54" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I54" s="3">
         <v>15400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>15900</v>
       </c>
       <c r="J54" s="3">
         <v>16000</v>
       </c>
       <c r="K54" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L54" s="3">
         <v>16000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="N54" s="3">
         <v>13100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>14000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>8300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>7500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>8100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>8600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>5900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4057,25 +4317,27 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -4084,81 +4346,87 @@
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>900</v>
       </c>
       <c r="S57" s="3">
         <v>1100</v>
       </c>
       <c r="T57" s="3">
+        <v>900</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4167,25 +4435,25 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
       <c r="R58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
@@ -4194,179 +4462,197 @@
         <v>800</v>
       </c>
       <c r="V58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="W58" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="X58" s="3">
         <v>1000</v>
       </c>
       <c r="Y58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7100</v>
       </c>
-      <c r="E59" s="3">
-        <v>7000</v>
-      </c>
       <c r="F59" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="G59" s="3">
         <v>7000</v>
       </c>
       <c r="H59" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K59" s="3">
         <v>6900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>7100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6600</v>
-      </c>
-      <c r="N59" s="3">
-        <v>6500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>6800</v>
       </c>
       <c r="P59" s="3">
         <v>6500</v>
       </c>
       <c r="Q59" s="3">
+        <v>6800</v>
+      </c>
+      <c r="R59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="S59" s="3">
         <v>6700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>6400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>6300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>5900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>5700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>5800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>5400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>5400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>3400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F60" s="3">
         <v>7700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>7500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>8400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>8200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>8500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>8100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>8300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>9100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>9300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>9200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>8800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>8800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>5800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -4389,26 +4675,26 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4442,49 +4728,55 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
       </c>
       <c r="O62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P62" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q62" s="3">
         <v>400</v>
@@ -4493,10 +4785,10 @@
         <v>500</v>
       </c>
       <c r="S62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T62" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U62" s="3">
         <v>300</v>
@@ -4508,10 +4800,10 @@
         <v>300</v>
       </c>
       <c r="X62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z62" s="3">
         <v>400</v>
@@ -4519,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>9200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>9300</v>
       </c>
       <c r="I66" s="3">
         <v>9200</v>
       </c>
       <c r="J66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="L66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>8600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>9200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>9200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>6500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5010,22 +5340,28 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E70" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F70" s="3">
         <v>5000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>4900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>4800</v>
-      </c>
-      <c r="G70" s="3">
-        <v>4800</v>
       </c>
       <c r="H70" s="3">
         <v>4800</v>
@@ -5046,49 +5382,55 @@
         <v>4800</v>
       </c>
       <c r="N70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O70" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P70" s="3">
         <v>4700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>4600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>4500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>4400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>4400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>4300</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>4200</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>3200</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>3100</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>3000</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>3000</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-6700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-7000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-7500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-13100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-13700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-13600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-12800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-11700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-8800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>700</v>
+      </c>
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-5300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-5200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-4400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>3000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5891,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6382,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -6432,11 +6874,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>80</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>80</v>
@@ -6444,11 +6886,11 @@
       <c r="V91" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6457,10 +6899,16 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7067,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6664,14 +7124,14 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -6688,10 +7148,16 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7513,14 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,13 +7528,13 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
@@ -7054,22 +7546,22 @@
         <v>-100</v>
       </c>
       <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7078,34 +7570,40 @@
         <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V100" s="3">
         <v>1000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>2900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,64 +7679,70 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
@@ -7247,15 +7751,21 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-900</v>
       </c>
     </row>
